--- a/flows/AMNA_fund_flow_data.xlsx
+++ b/flows/AMNA_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B928"/>
+  <dimension ref="A1:B944"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9715,6 +9715,166 @@
         <v>0</v>
       </c>
     </row>
+    <row r="929">
+      <c r="A929" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B929" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B930" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B931" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B932" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B933" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B934" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B935" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B936" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B937" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B938" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B939" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B940" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B941" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B942" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B943" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B944" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
